--- a/similarities/split_global/harmonic_similarity_timestamps_276.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_276.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:26.923922', '0:01:32.322562')]</t>
+          <t>('0:00:17.040000', '0:00:24.520000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:22.400000', '0:00:31.860000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=22.4</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb:7', 'Eb']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:15.800000')]</t>
+          <t>('0:00:07.284457', '0:00:20.438561')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:12.820000', '0:01:30.640000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:09.100000', '0:00:13.860000')]</t>
+          <t>('0:01:12.820000', '0:01:24.380000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+          <t>('0:00:22.370000', '0:00:40.370000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:01.300000', '0:00:02.670000')]</t>
+          <t>('0:00:16.440000', '0:00:45.540000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.210000', '0:00:15.930000')]</t>
+          <t>('0:00:29.020000', '0:00:40.820000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=1.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=16.44</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=13.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=29.02</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>isophonics_13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['A:min', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G']]</t>
+          <t>['A:min', 'C', 'G']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:05.520000', '0:00:13.120000')]</t>
+          <t>('0:00:30.116000', '0:00:33.079000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:24.911369', '0:00:31.761256')]</t>
+          <t>('0:00:09.999342', '0:00:15.409591')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=5.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=30.116</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-49#t=24.911369']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-13#t=9.999342</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:03:45.320000', '0:03:52.800000')]</t>
+          <t>('0:00:15.300000', '0:00:22.660000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:17.940000', '0:00:20.700000')]</t>
+          <t>('0:01:08.640000', '0:01:23.840000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=225.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=17.94']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:7/F#', 'G:maj', 'E:min7/G']]</t>
+          <t>['A', 'E', 'A', 'E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'G:min7']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:26.500000', '0:01:30.540000')]</t>
+          <t>('0:00:10.953139', '0:00:28.356495')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:15.539000', '0:00:22.860000')]</t>
+          <t>('0:00:11.860000', '0:00:16.520000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=86.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=15.539']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.86</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.740000', '0:00:21.500000'), ('0:01:08.040000', '0:01:19')]</t>
+          <t>('0:00:06.774988', '0:00:12.022698')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:43.260000', '0:00:45.660000'), ('0:00:17.160000', '0:00:19.520000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=17.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:07.700000', '0:00:19.980000')]</t>
+          <t>('0:00:20.440000', '0:00:26.160000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:23.980000', '0:00:31.920000')]</t>
+          <t>('0:00:55.460000', '0:00:59.640000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=7.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=20.44</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=23.98']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=55.46</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>isophonics_146</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B', 'E/5']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:10.444104')]</t>
+          <t>('0:00:05.915850', '0:00:14.867142')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:43.060000', '0:01:03.280000')]</t>
+          <t>('0:02:37.160000', '0:02:40.380000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:07.700000')]</t>
+          <t>('0:00:33.724965', '0:00:54.715804')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=43.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=157.16</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=33.724965</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C', 'C/b7']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C', 'C/7']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:32.486000', '0:00:38.588000')]</t>
+          <t>('0:00:43.180000', '0:00:45.100000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:10.937548', '0:00:16.810929')]</t>
+          <t>('0:00:20.920000', '0:00:26.040000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=32.486']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=10.937548']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['B', 'Gb', 'B', 'Gb']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['G:7', 'C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:15.552131', '0:00:23.667505')]</t>
+          <t>('0:00:05.400000', '0:00:16.760000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:29.340000', '0:00:32.080000')]</t>
+          <t>('0:00:02.081000', '0:00:13.841000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=15.552131']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=5.4</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=29.34']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=2.081</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:01.206300', '0:01:58.925813')]</t>
+          <t>('0:00:13.390000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=13.39</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
+          <t>['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:01.460000', '0:00:09.840000'), ('0:00:29.340000', '0:00:39.820000')]</t>
+          <t>('0:01:13.320000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:03.700000', '0:01:06.700000')]</t>
+          <t>('0:01:04.520000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=29.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=73.32</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=64.52</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
